--- a/data/trans_orig/P1203-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>260107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>237461</v>
+        <v>236763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287113</v>
+        <v>285976</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4452807079119339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4065134643795342</v>
+        <v>0.4053177617046504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4915134282280528</v>
+        <v>0.4895673042391876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>353</v>
@@ -765,19 +765,19 @@
         <v>370027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>339275</v>
+        <v>340914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>401637</v>
+        <v>400439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4011860270422307</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3678448908700199</v>
+        <v>0.3696215549111862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4354578628988396</v>
+        <v>0.4341593432412953</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>606</v>
@@ -786,19 +786,19 @@
         <v>630134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>588966</v>
+        <v>589054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>668721</v>
+        <v>667743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4182839123630258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3909564398924987</v>
+        <v>0.3910151502495811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4438983690535043</v>
+        <v>0.44324872027282</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>145272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124720</v>
+        <v>125135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167000</v>
+        <v>167216</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2486935230057195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2135094402865192</v>
+        <v>0.2142199292783711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.285889294270743</v>
+        <v>0.286259195105933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -836,19 +836,19 @@
         <v>208232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183983</v>
+        <v>185276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236851</v>
+        <v>234086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2257665188742689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1994761083917607</v>
+        <v>0.2008778808693621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2567951923289208</v>
+        <v>0.2537980003226594</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -857,19 +857,19 @@
         <v>353504</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>322088</v>
+        <v>322554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390106</v>
+        <v>389106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2346565545805547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2138028359906136</v>
+        <v>0.2141119326045152</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2589531513144657</v>
+        <v>0.2582891569905654</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>130189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109993</v>
+        <v>109504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>150865</v>
+        <v>151913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2228721993494491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1882991194162098</v>
+        <v>0.1874621809468843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2582676089034746</v>
+        <v>0.2600616410917861</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>215</v>
@@ -907,19 +907,19 @@
         <v>222029</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>196804</v>
+        <v>198420</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>249354</v>
+        <v>249730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2407258583140259</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2133766120624343</v>
+        <v>0.2151284776243438</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2703518555720522</v>
+        <v>0.2707593834844428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>344</v>
@@ -928,19 +928,19 @@
         <v>352218</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>322147</v>
+        <v>317286</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>386731</v>
+        <v>385959</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2338030320793846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2138418528228912</v>
+        <v>0.2106152139156904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2567127674173539</v>
+        <v>0.2562003549790036</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>35037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25404</v>
+        <v>24758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49081</v>
+        <v>47806</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05998056942994702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04348984824866613</v>
+        <v>0.04238437742240769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08402316222000693</v>
+        <v>0.08183900847918743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -978,19 +978,19 @@
         <v>78369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63536</v>
+        <v>62533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96615</v>
+        <v>95834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08496864625060133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06888599637417257</v>
+        <v>0.06779913875935892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1047505902334478</v>
+        <v>0.1039040863543331</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -999,19 +999,19 @@
         <v>113406</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92588</v>
+        <v>95891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134732</v>
+        <v>134792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07527942153142851</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06146016840550694</v>
+        <v>0.06365271467842677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08943556452492722</v>
+        <v>0.08947515642269183</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>8265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3842</v>
+        <v>3835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14860</v>
+        <v>15488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01414891925127522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006576387465863079</v>
+        <v>0.006565893573885503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02543926541019818</v>
+        <v>0.02651435955469453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1049,19 +1049,19 @@
         <v>22696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14862</v>
+        <v>14981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32719</v>
+        <v>32815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02460682614633944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01611296956052816</v>
+        <v>0.01624243614500939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03547425658999122</v>
+        <v>0.03557822206509303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -1070,19 +1070,19 @@
         <v>30961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21251</v>
+        <v>20779</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43251</v>
+        <v>43454</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0205517317616964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0141063237981701</v>
+        <v>0.01379322892478766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02870982739363014</v>
+        <v>0.02884463036300108</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>5271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1714</v>
+        <v>1821</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12403</v>
+        <v>12608</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009024081051675171</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002934961695493861</v>
+        <v>0.003117403242949168</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02123352651997418</v>
+        <v>0.02158382457223237</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1120,19 +1120,19 @@
         <v>20980</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12474</v>
+        <v>13498</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32679</v>
+        <v>32783</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02274612337253367</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01352403039814568</v>
+        <v>0.0146341300055414</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03543032065234002</v>
+        <v>0.03554350487364421</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -1141,19 +1141,19 @@
         <v>26251</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17456</v>
+        <v>17007</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39831</v>
+        <v>39753</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01742534768391002</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01158709563977342</v>
+        <v>0.01128930669915128</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02643955595261883</v>
+        <v>0.02638828116073064</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>595932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>563945</v>
+        <v>562559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628288</v>
+        <v>630489</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.552867416004677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5231916152867113</v>
+        <v>0.5219055289247597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5828852157265225</v>
+        <v>0.5849266086344449</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -1266,19 +1266,19 @@
         <v>439600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407972</v>
+        <v>408951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472527</v>
+        <v>470389</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4156821286083537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3857753616899075</v>
+        <v>0.3867007252903589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4468182542636232</v>
+        <v>0.444796599955511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1019</v>
@@ -1287,19 +1287,19 @@
         <v>1035532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>987524</v>
+        <v>989140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1081006</v>
+        <v>1078653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.484928632438949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4624470178671543</v>
+        <v>0.4632038387907331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.50622375756152</v>
+        <v>0.5051214908545587</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>270477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>242133</v>
+        <v>242255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>300751</v>
+        <v>298163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.250931164893104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2246348578990208</v>
+        <v>0.2247486860819457</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2790175738053239</v>
+        <v>0.2766160171671406</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>291</v>
@@ -1337,19 +1337,19 @@
         <v>299600</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>274332</v>
+        <v>271717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>332811</v>
+        <v>326852</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2832994532973319</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2594065137895982</v>
+        <v>0.2569331516438486</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3147040312651916</v>
+        <v>0.3090687761539317</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>552</v>
@@ -1358,19 +1358,19 @@
         <v>570077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>530225</v>
+        <v>532621</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>610020</v>
+        <v>617892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2669610335621465</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2482988720189845</v>
+        <v>0.2494204995914611</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.285665642974023</v>
+        <v>0.2893521032768213</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>157174</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>136170</v>
+        <v>134357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179837</v>
+        <v>180275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1458162330245736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1263297489361508</v>
+        <v>0.1246473948598954</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.16684066843111</v>
+        <v>0.1672471203102874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -1408,19 +1408,19 @@
         <v>235416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>208279</v>
+        <v>209933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>266075</v>
+        <v>266506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2226072545264036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1969474717948265</v>
+        <v>0.1985108932038472</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2515983304545817</v>
+        <v>0.2520060310835349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>379</v>
@@ -1429,19 +1429,19 @@
         <v>392590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>358774</v>
+        <v>356079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>429474</v>
+        <v>427498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1838457381458627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1680099191345908</v>
+        <v>0.1667482210441368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2011179348738882</v>
+        <v>0.2001927913069408</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>43348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31441</v>
+        <v>32080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58038</v>
+        <v>57361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04021501827287378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02916868253882993</v>
+        <v>0.02976139221701597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05384343965779492</v>
+        <v>0.05321559134295029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1479,19 +1479,19 @@
         <v>53659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40328</v>
+        <v>39276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68853</v>
+        <v>69560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05073969859419186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03813353893908403</v>
+        <v>0.03713886106010689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06510643832891341</v>
+        <v>0.06577531683431009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -1500,19 +1500,19 @@
         <v>97007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78909</v>
+        <v>78421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118855</v>
+        <v>119456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04542719511792276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0369523214315713</v>
+        <v>0.03672357873733976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05565863601865328</v>
+        <v>0.05594000772017545</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>9278</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4337</v>
+        <v>3867</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19010</v>
+        <v>18808</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008607467302869277</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004023979104907816</v>
+        <v>0.003587793202888755</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01763590571262104</v>
+        <v>0.01744839656403459</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -1550,19 +1550,19 @@
         <v>18749</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11635</v>
+        <v>11574</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29649</v>
+        <v>28830</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01772879811814241</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01100180356030824</v>
+        <v>0.01094391155481861</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02803579795259004</v>
+        <v>0.02726181678528671</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>26</v>
@@ -1571,19 +1571,19 @@
         <v>28027</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>18404</v>
+        <v>18585</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41932</v>
+        <v>40455</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01312465811721644</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008618244960070291</v>
+        <v>0.008703375149588832</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01963611047856289</v>
+        <v>0.01894459148525033</v>
       </c>
     </row>
     <row r="16">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5835</v>
+        <v>5506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001562700501902261</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005413717949531975</v>
+        <v>0.005107735163766424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1621,19 +1621,19 @@
         <v>10515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5303</v>
+        <v>5243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18714</v>
+        <v>19224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009942666855576507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005014503298420754</v>
+        <v>0.004958022958085591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01769540863361238</v>
+        <v>0.01817804585450645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1642,19 +1642,19 @@
         <v>12199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6965</v>
+        <v>6532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20818</v>
+        <v>20917</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005712742617902642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003261625638929665</v>
+        <v>0.003058747214776612</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00974862673082106</v>
+        <v>0.009795379393796525</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>703715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>673003</v>
+        <v>668234</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>736810</v>
+        <v>733901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6274244355277162</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6000417137777404</v>
+        <v>0.595789645679607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6569309408378157</v>
+        <v>0.6543378253983069</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>509</v>
@@ -1767,19 +1767,19 @@
         <v>508409</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>475996</v>
+        <v>476224</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>542877</v>
+        <v>542939</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5115087972557857</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4788985212845004</v>
+        <v>0.4791272929554911</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5461868071861418</v>
+        <v>0.5462495292454206</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1205</v>
@@ -1788,19 +1788,19 @@
         <v>1212125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1166219</v>
+        <v>1165928</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1254345</v>
+        <v>1258176</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5729638831567553</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5512647871452556</v>
+        <v>0.5511269265913251</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5929213182296742</v>
+        <v>0.5947322824137826</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>248470</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>222195</v>
+        <v>222786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>277386</v>
+        <v>280131</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2215326418397644</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1981065189580805</v>
+        <v>0.1986334658754083</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2473140190646143</v>
+        <v>0.2497616164151883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -1838,19 +1838,19 @@
         <v>255260</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>229330</v>
+        <v>227420</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>283488</v>
+        <v>281378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2568164588900155</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2307286848806016</v>
+        <v>0.2288069815376533</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2852166504351673</v>
+        <v>0.2830936455955473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>492</v>
@@ -1859,19 +1859,19 @@
         <v>503730</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>465605</v>
+        <v>466910</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>547531</v>
+        <v>544988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2381100096130816</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2200888230120762</v>
+        <v>0.2207055943232932</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2588147407722723</v>
+        <v>0.2576122797272509</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>125545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106491</v>
+        <v>104329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148750</v>
+        <v>147485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1119341469323282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0949458310719609</v>
+        <v>0.0930185875493388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1326239558068271</v>
+        <v>0.1314959028495049</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -1909,19 +1909,19 @@
         <v>187934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>165879</v>
+        <v>163035</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>216738</v>
+        <v>215474</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1890793903635875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1668904988259537</v>
+        <v>0.1640291148160578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2180590967054935</v>
+        <v>0.2167881586230183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>306</v>
@@ -1930,19 +1930,19 @@
         <v>313478</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>281281</v>
+        <v>280538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>347642</v>
+        <v>345088</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.148179235452675</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1329598939135608</v>
+        <v>0.1326085659923645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1643283885983519</v>
+        <v>0.1631208950716144</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>22436</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14035</v>
+        <v>14588</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33010</v>
+        <v>33893</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02000374628658542</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01251304449675135</v>
+        <v>0.01300631892692563</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02943090452323798</v>
+        <v>0.03021902808841051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1980,19 +1980,19 @@
         <v>28463</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19057</v>
+        <v>19059</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39908</v>
+        <v>41214</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02863666026569464</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01917343335884607</v>
+        <v>0.0191756926501418</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04015133325021573</v>
+        <v>0.04146549329903783</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -2001,19 +2001,19 @@
         <v>50899</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38379</v>
+        <v>37743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67391</v>
+        <v>66721</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02405974141271611</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01814164729616946</v>
+        <v>0.01784082797475036</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0318553436595531</v>
+        <v>0.03153854767600515</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>13655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6980</v>
+        <v>7517</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23010</v>
+        <v>24283</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01217504162572437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00622329840636222</v>
+        <v>0.00670191063556248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02051574335805925</v>
+        <v>0.02165072415988723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2051,19 +2051,19 @@
         <v>8550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3305</v>
+        <v>4050</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16316</v>
+        <v>16204</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008601882315456345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003324714078953562</v>
+        <v>0.00407485818102446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01641588841640414</v>
+        <v>0.01630295598880698</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2072,19 +2072,19 @@
         <v>22205</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14286</v>
+        <v>14373</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33733</v>
+        <v>34127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01049626702164439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006752747960685532</v>
+        <v>0.006793969447837386</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01594548739748926</v>
+        <v>0.01613148628853637</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>7773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3140</v>
+        <v>3832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14443</v>
+        <v>15527</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00692998778788142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002799650786127858</v>
+        <v>0.003416312383253189</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01287759984102105</v>
+        <v>0.01384346858328125</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2122,19 +2122,19 @@
         <v>5324</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2109</v>
+        <v>2042</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12497</v>
+        <v>11823</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005356810909460336</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0021214505576035</v>
+        <v>0.002054185679327484</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01257315002309382</v>
+        <v>0.01189498442549629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2143,19 +2143,19 @@
         <v>13097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7098</v>
+        <v>7144</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21467</v>
+        <v>21828</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006190863343127506</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003355251835222504</v>
+        <v>0.003377038080732722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01014752509142336</v>
+        <v>0.0103180525867083</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>257025</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>235552</v>
+        <v>233306</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>279077</v>
+        <v>276849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5747437300387576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5267266545415999</v>
+        <v>0.5217049753165227</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6240536040553861</v>
+        <v>0.6190729483480145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -2268,19 +2268,19 @@
         <v>170446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153380</v>
+        <v>151181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>190418</v>
+        <v>189257</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4996108757080787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4495866988518327</v>
+        <v>0.4431401417538608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5581521645956</v>
+        <v>0.5547482889030599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>420</v>
@@ -2289,19 +2289,19 @@
         <v>427472</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>399823</v>
+        <v>402071</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>456202</v>
+        <v>456031</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5422303388478813</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5071593663176442</v>
+        <v>0.5100106425805978</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5786736519895505</v>
+        <v>0.5784561586638474</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>103839</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87071</v>
+        <v>88394</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123419</v>
+        <v>124407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2321970278094315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1947034557709412</v>
+        <v>0.1976619385476229</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2759814951151158</v>
+        <v>0.2781899642735556</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>71</v>
@@ -2339,19 +2339,19 @@
         <v>70841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57413</v>
+        <v>56065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86942</v>
+        <v>86814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2076499984814566</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1682875065342674</v>
+        <v>0.1643387972891781</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2548443149885958</v>
+        <v>0.2544689156322834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -2360,19 +2360,19 @@
         <v>174680</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152729</v>
+        <v>151211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>198672</v>
+        <v>198893</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2215744157148385</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1937301350786899</v>
+        <v>0.1918051394480303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2520070212705925</v>
+        <v>0.2522878141517693</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>73170</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>59065</v>
+        <v>58272</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>90520</v>
+        <v>90539</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1636188787297097</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1320772567986717</v>
+        <v>0.1303043481466921</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2024159521766999</v>
+        <v>0.2024564802263819</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>70</v>
@@ -2410,19 +2410,19 @@
         <v>70474</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>56095</v>
+        <v>55836</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>86666</v>
+        <v>85820</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2065731622212092</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1644258177851477</v>
+        <v>0.1636670515301499</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2540341305296546</v>
+        <v>0.2515538425490874</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>142</v>
@@ -2431,19 +2431,19 @@
         <v>143644</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>123299</v>
+        <v>123427</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>168432</v>
+        <v>166234</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1822071439423712</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1563998814552028</v>
+        <v>0.1565621206070666</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2136487518281885</v>
+        <v>0.2108605603109712</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>11190</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5589</v>
+        <v>5697</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19902</v>
+        <v>20033</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02502346614649224</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01249677192077121</v>
+        <v>0.01273833487976969</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04450327573256935</v>
+        <v>0.04479762658709176</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2481,19 +2481,19 @@
         <v>13675</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6917</v>
+        <v>8173</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21808</v>
+        <v>22412</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04008263548830521</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02027523253281241</v>
+        <v>0.02395723915834815</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06392402143206434</v>
+        <v>0.06569444837339361</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2502,19 +2502,19 @@
         <v>24865</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16862</v>
+        <v>16563</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36332</v>
+        <v>36976</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03154025122249977</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02138938101098074</v>
+        <v>0.02100913389411944</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04608576160666294</v>
+        <v>0.04690231773529256</v>
       </c>
     </row>
     <row r="29">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4739</v>
+        <v>5583</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00208621217604747</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01059698576815646</v>
+        <v>0.01248515838303736</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2552,19 +2552,19 @@
         <v>6855</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2889</v>
+        <v>2933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13093</v>
+        <v>13306</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02009303851276636</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008468171500093826</v>
+        <v>0.008595889218800128</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03837679574460437</v>
+        <v>0.03900111650247816</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2573,19 +2573,19 @@
         <v>7788</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3732</v>
+        <v>3828</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15917</v>
+        <v>15927</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009878582025529608</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004733454996313294</v>
+        <v>0.004855672365654791</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02018962412712879</v>
+        <v>0.02020262320392126</v>
       </c>
     </row>
     <row r="30">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5255</v>
+        <v>5041</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002330685099561481</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01175040064136991</v>
+        <v>0.01127157661107984</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2623,19 +2623,19 @@
         <v>8867</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4039</v>
+        <v>4125</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17129</v>
+        <v>17885</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02599028958818395</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01183897731216807</v>
+        <v>0.01209207952243206</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05020983521952663</v>
+        <v>0.05242461040930307</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2644,19 +2644,19 @@
         <v>9909</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4813</v>
+        <v>5033</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19514</v>
+        <v>18772</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01256926824687959</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006104799416424379</v>
+        <v>0.006384603308917693</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02475228500258085</v>
+        <v>0.02381207878748611</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>1816780</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1761429</v>
+        <v>1753199</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1872444</v>
+        <v>1873408</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5623262768954821</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5451941730206482</v>
+        <v>0.5426467046851641</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5795553233571233</v>
+        <v>0.5798538079662002</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1463</v>
@@ -2769,19 +2769,19 @@
         <v>1488482</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1427485</v>
+        <v>1429333</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1551002</v>
+        <v>1541237</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4490183911438543</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4306180410008603</v>
+        <v>0.4311754278255295</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4678784253894316</v>
+        <v>0.4649325354634591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3250</v>
@@ -2790,19 +2790,19 @@
         <v>3305262</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3233994</v>
+        <v>3222317</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3386134</v>
+        <v>3386116</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5049441056533394</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4940565011383</v>
+        <v>0.4922726492921612</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5172988463177179</v>
+        <v>0.5172960902952074</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>768057</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>716763</v>
+        <v>720630</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>813802</v>
+        <v>819178</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.237727676484942</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2218511023090304</v>
+        <v>0.2230481480378851</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2518865763455828</v>
+        <v>0.2535505348637912</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>810</v>
@@ -2840,19 +2840,19 @@
         <v>833933</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>783059</v>
+        <v>786172</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>886086</v>
+        <v>889963</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2515659854514823</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2362191346544603</v>
+        <v>0.237158068299873</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2672985480136294</v>
+        <v>0.268467949490716</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1558</v>
@@ -2861,19 +2861,19 @@
         <v>1601991</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1537235</v>
+        <v>1531976</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1675309</v>
+        <v>1672848</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2447357696070775</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2348430351390044</v>
+        <v>0.2340396599958725</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2559365339267787</v>
+        <v>0.2555605319207764</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>486078</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>445528</v>
+        <v>444790</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>526787</v>
+        <v>527761</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1504500147083525</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1378989268026175</v>
+        <v>0.137670664914275</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1630501367482199</v>
+        <v>0.1633516535953526</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>693</v>
@@ -2911,19 +2911,19 @@
         <v>715853</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>668266</v>
+        <v>673084</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>766834</v>
+        <v>767642</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2159455181680578</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2015905636405581</v>
+        <v>0.2030437516390507</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2313245049574686</v>
+        <v>0.2315682900257794</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1171</v>
@@ -2932,19 +2932,19 @@
         <v>1201931</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1140403</v>
+        <v>1144430</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1267750</v>
+        <v>1267694</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.183618705220797</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1742191402588524</v>
+        <v>0.1748343006814508</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1936738790123575</v>
+        <v>0.1936653363103158</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>112011</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>92157</v>
+        <v>92000</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>134587</v>
+        <v>133236</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03466949813259099</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02852411015534212</v>
+        <v>0.02847551112382193</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04165709004263587</v>
+        <v>0.04123903052797567</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>170</v>
@@ -2982,19 +2982,19 @@
         <v>174166</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>151191</v>
+        <v>151433</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>201216</v>
+        <v>202192</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05253931161088519</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04560842887999989</v>
+        <v>0.04568159305074784</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06069934948797753</v>
+        <v>0.0609936716409585</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>279</v>
@@ -3003,19 +3003,19 @@
         <v>286177</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>253112</v>
+        <v>251369</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>319495</v>
+        <v>320520</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04371925393974051</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03866787253848301</v>
+        <v>0.03840155239191415</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04880924180065145</v>
+        <v>0.04896569812091956</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>32131</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21737</v>
+        <v>22967</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>46753</v>
+        <v>45775</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009945223028942293</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006727998470552019</v>
+        <v>0.007108651067381893</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01447077549506087</v>
+        <v>0.01416819248554219</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>56</v>
@@ -3053,19 +3053,19 @@
         <v>56849</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>43160</v>
+        <v>43903</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>72422</v>
+        <v>73698</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01714924775954106</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01301979066745243</v>
+        <v>0.01324380270726638</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02184709599455477</v>
+        <v>0.02223191549955585</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>86</v>
@@ -3074,19 +3074,19 @@
         <v>88981</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>72217</v>
+        <v>71017</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>111595</v>
+        <v>108493</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01359353557119543</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01103260143225711</v>
+        <v>0.01084927691441351</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01704841198892336</v>
+        <v>0.016574460824288</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>15771</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9259</v>
+        <v>9571</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24444</v>
+        <v>26281</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004881310749690158</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002865727973638624</v>
+        <v>0.002962290611201616</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.00756590291792009</v>
+        <v>0.008134381735039426</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>42</v>
@@ -3124,19 +3124,19 @@
         <v>45685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33812</v>
+        <v>33283</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>62665</v>
+        <v>60324</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01378154586617934</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01019991380252238</v>
+        <v>0.01004028113652699</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0189037944741664</v>
+        <v>0.01819756355633331</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>58</v>
@@ -3145,19 +3145,19 @@
         <v>61456</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>46131</v>
+        <v>46353</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>80111</v>
+        <v>79337</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00938863000785024</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007047427811440151</v>
+        <v>0.007081310012607974</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01223852077233177</v>
+        <v>0.01212022115764309</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>458927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>423318</v>
+        <v>424660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>491582</v>
+        <v>491049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4402070894916101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4060502079233005</v>
+        <v>0.4073377603697045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4715300366545779</v>
+        <v>0.4710180445779988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>327</v>
@@ -3510,19 +3510,19 @@
         <v>361272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>329481</v>
+        <v>328896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393926</v>
+        <v>392866</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3234534808527192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2949903630721548</v>
+        <v>0.2944665889288079</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3526890376675914</v>
+        <v>0.3517402374729848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>760</v>
@@ -3531,19 +3531,19 @@
         <v>820200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>775071</v>
+        <v>772324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>872284</v>
+        <v>866665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3798191478417028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3589208440726383</v>
+        <v>0.3576490203496749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4039385421406337</v>
+        <v>0.4013362353059607</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>204238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179768</v>
+        <v>179628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>233590</v>
+        <v>233925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1959071886370737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1724354595272351</v>
+        <v>0.1723006980609646</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2240611192344478</v>
+        <v>0.2243828010528215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -3581,19 +3581,19 @@
         <v>240609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213707</v>
+        <v>213716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270474</v>
+        <v>265486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2154214965421147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1913356189650446</v>
+        <v>0.1913440666822072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2421602265554859</v>
+        <v>0.2376949608511871</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>420</v>
@@ -3602,19 +3602,19 @@
         <v>444847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>407914</v>
+        <v>405707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483857</v>
+        <v>484470</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2060004859736273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1888974316613133</v>
+        <v>0.1878751757823826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2240651684639239</v>
+        <v>0.224349086909454</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>251933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>226026</v>
+        <v>225157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285716</v>
+        <v>286323</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2416561785115216</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2168056793857364</v>
+        <v>0.2159728708315613</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2740611211053035</v>
+        <v>0.2746438971936906</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>277</v>
@@ -3652,19 +3652,19 @@
         <v>299095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>269063</v>
+        <v>270030</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>327874</v>
+        <v>329876</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2677852854328747</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2408974286173194</v>
+        <v>0.2417626953395897</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2935519802583468</v>
+        <v>0.2953444793477547</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>508</v>
@@ -3673,19 +3673,19 @@
         <v>551028</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>508425</v>
+        <v>510526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>591203</v>
+        <v>594029</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2551708184659158</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2354421798683949</v>
+        <v>0.2364150412531306</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2737749901591949</v>
+        <v>0.2750835286722724</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>74542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59218</v>
+        <v>58696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92693</v>
+        <v>91778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07150158389152389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05680204424537121</v>
+        <v>0.05630142599573158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08891175508296706</v>
+        <v>0.08803442517812902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -3723,19 +3723,19 @@
         <v>108367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86882</v>
+        <v>89052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128313</v>
+        <v>129743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09702314960241258</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07778698752988375</v>
+        <v>0.07972969356345605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1148812575368393</v>
+        <v>0.1161616789654561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -3744,19 +3744,19 @@
         <v>182910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157206</v>
+        <v>156586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210880</v>
+        <v>211350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08470198804973887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07279915569430834</v>
+        <v>0.07251217702246929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09765443055464318</v>
+        <v>0.09787245931818457</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>37674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26633</v>
+        <v>26792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53575</v>
+        <v>53269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03613751784560593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02554668023095772</v>
+        <v>0.02569943653308824</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0513898081563064</v>
+        <v>0.05109577234192712</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -3794,19 +3794,19 @@
         <v>60694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48062</v>
+        <v>46243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77152</v>
+        <v>77423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05434023112296922</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04303043603636922</v>
+        <v>0.04140249280052246</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06907549899613061</v>
+        <v>0.06931839755201301</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -3815,19 +3815,19 @@
         <v>98368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80942</v>
+        <v>81320</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>120358</v>
+        <v>121201</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04555242501702549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03748264284969362</v>
+        <v>0.03765782699915123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05573547126028531</v>
+        <v>0.05612591775972099</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>15211</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8371</v>
+        <v>8326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25958</v>
+        <v>25299</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01459044162266479</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008029604969055885</v>
+        <v>0.007986595414812734</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02489946316033246</v>
+        <v>0.02426749336461096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -3865,19 +3865,19 @@
         <v>46884</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34583</v>
+        <v>33501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61645</v>
+        <v>62211</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04197635644690957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03096255084431391</v>
+        <v>0.02999372649345507</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05519216742893359</v>
+        <v>0.0556987518049833</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -3886,19 +3886,19 @@
         <v>62095</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47659</v>
+        <v>47890</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80178</v>
+        <v>80843</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02875513465198967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02207010060624199</v>
+        <v>0.02217700682173065</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0371288157777497</v>
+        <v>0.03743687181895571</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>413322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>381676</v>
+        <v>384122</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443560</v>
+        <v>444670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4230206118118758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3906319617774608</v>
+        <v>0.3931352992514809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4539680829619847</v>
+        <v>0.4551045023010434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -4011,19 +4011,19 @@
         <v>336529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303420</v>
+        <v>304073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>365714</v>
+        <v>368629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3075396460377711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2772824407128988</v>
+        <v>0.2778795132280764</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3342110416475789</v>
+        <v>0.3368746235192801</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>707</v>
@@ -4032,19 +4032,19 @@
         <v>749851</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>703271</v>
+        <v>705767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>794636</v>
+        <v>794966</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3620133608288372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3395253845691895</v>
+        <v>0.3407302960541055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3836347999652995</v>
+        <v>0.3837939759480844</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>322255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>292668</v>
+        <v>292541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>352921</v>
+        <v>352041</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3298162938672252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2995359143646878</v>
+        <v>0.2994051713128621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3612023349794451</v>
+        <v>0.3603015240001844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>312</v>
@@ -4082,19 +4082,19 @@
         <v>336509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>304905</v>
+        <v>305510</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>368590</v>
+        <v>369014</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.30752120986288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.278640303645855</v>
+        <v>0.2791929444467547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3368387679979705</v>
+        <v>0.3372266244646542</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>618</v>
@@ -4103,19 +4103,19 @@
         <v>658763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>614866</v>
+        <v>615950</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>704171</v>
+        <v>705306</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3180380603165839</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2968454004100129</v>
+        <v>0.2973684276561342</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3399600201076694</v>
+        <v>0.3405081453275173</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>178079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153491</v>
+        <v>153752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204051</v>
+        <v>203261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1822571476747677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1570927136685351</v>
+        <v>0.157359551489659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2088392790712599</v>
+        <v>0.2080306402414835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>266</v>
@@ -4153,19 +4153,19 @@
         <v>279825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253324</v>
+        <v>249307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>311763</v>
+        <v>308890</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2557201999390017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2315021469700909</v>
+        <v>0.2278313650988023</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2849072726543302</v>
+        <v>0.282281602378341</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>429</v>
@@ -4174,19 +4174,19 @@
         <v>457903</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>420409</v>
+        <v>422123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>500771</v>
+        <v>498417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2210668236886585</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2029652647275792</v>
+        <v>0.2037926227361458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2417624231368123</v>
+        <v>0.2406257510850918</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>35742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24821</v>
+        <v>24313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50046</v>
+        <v>49205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03658050330978633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02540297419718909</v>
+        <v>0.02488339144257536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05122068236390643</v>
+        <v>0.05035911720702144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -4224,19 +4224,19 @@
         <v>69728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55841</v>
+        <v>52447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87707</v>
+        <v>86923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06372166191984503</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0510303918144594</v>
+        <v>0.04792898680267724</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08015218690576498</v>
+        <v>0.07943565474266479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -4245,19 +4245,19 @@
         <v>105470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>86171</v>
+        <v>87506</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126680</v>
+        <v>127058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05091886170673011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04160149197284902</v>
+        <v>0.04224614142745129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06115867645227748</v>
+        <v>0.06134103527032606</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>22264</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14695</v>
+        <v>14013</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34034</v>
+        <v>34764</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02278683093904017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01504006667949709</v>
+        <v>0.01434195935104281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03483304295887856</v>
+        <v>0.03558006665593921</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -4295,19 +4295,19 @@
         <v>56960</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43412</v>
+        <v>42355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74294</v>
+        <v>74630</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05205292875719709</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03967244086703979</v>
+        <v>0.03870657340214671</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0678937169972231</v>
+        <v>0.06820149507489325</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>71</v>
@@ -4316,19 +4316,19 @@
         <v>79224</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>61836</v>
+        <v>62738</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>99329</v>
+        <v>99782</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03824777000305019</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02985329828152661</v>
+        <v>0.03028882719668596</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04795387835331875</v>
+        <v>0.04817301814210787</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>5412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2008</v>
+        <v>2107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12567</v>
+        <v>12917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005538612397304831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002054942287959246</v>
+        <v>0.002156283866650721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01286184866906176</v>
+        <v>0.01321969946706926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4366,19 +4366,19 @@
         <v>14712</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7591</v>
+        <v>8194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23493</v>
+        <v>24336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01344435348330497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006937127419464689</v>
+        <v>0.00748789551835715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02146937250039936</v>
+        <v>0.02223951564994471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -4387,19 +4387,19 @@
         <v>20123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12595</v>
+        <v>12564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31602</v>
+        <v>31150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009715123456140149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006080407209033171</v>
+        <v>0.006065640712552354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01525662949425739</v>
+        <v>0.01503837430305871</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>380174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>350034</v>
+        <v>349318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>409857</v>
+        <v>412158</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4310773422258529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3969023585981906</v>
+        <v>0.3960901380107992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4647355549766816</v>
+        <v>0.4673438457641327</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>276</v>
@@ -4512,19 +4512,19 @@
         <v>291437</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>263528</v>
+        <v>265199</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>321780</v>
+        <v>322019</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3335274746666778</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3015870140268715</v>
+        <v>0.3034999097336865</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3682526283154237</v>
+        <v>0.368525764906642</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>636</v>
@@ -4533,19 +4533,19 @@
         <v>671611</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>630523</v>
+        <v>630262</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>711915</v>
+        <v>716837</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3825277593668333</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.359125549221345</v>
+        <v>0.3589770240761618</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4054837571966421</v>
+        <v>0.408286904380234</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>328399</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>298609</v>
+        <v>298851</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>358792</v>
+        <v>358600</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3723703126400109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3385916664358444</v>
+        <v>0.3388658792306875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4068323777247345</v>
+        <v>0.4066149636150798</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>289</v>
@@ -4583,19 +4583,19 @@
         <v>307330</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>279488</v>
+        <v>280082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>335683</v>
+        <v>337625</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3517158573243941</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3198524552733567</v>
+        <v>0.3205318742719351</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3841635081680631</v>
+        <v>0.3863861346377216</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>592</v>
@@ -4604,19 +4604,19 @@
         <v>635729</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>593346</v>
+        <v>594806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>679246</v>
+        <v>677725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3620907990451291</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3379503581870328</v>
+        <v>0.3387823775455256</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3868763850143431</v>
+        <v>0.386010142135883</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>120368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101799</v>
+        <v>99743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142738</v>
+        <v>142092</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1364846326054063</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1154293738995239</v>
+        <v>0.1130981064263802</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1618499501091908</v>
+        <v>0.1611181325093635</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>195</v>
@@ -4654,19 +4654,19 @@
         <v>208968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184985</v>
+        <v>181635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234997</v>
+        <v>234234</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2391482544199309</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2117007775224072</v>
+        <v>0.2078673856477437</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2689361427625412</v>
+        <v>0.2680629045258863</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>309</v>
@@ -4675,19 +4675,19 @@
         <v>329336</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297367</v>
+        <v>298463</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362364</v>
+        <v>362072</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1875792792574665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1693708420514072</v>
+        <v>0.1699948483059302</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2063908091410847</v>
+        <v>0.2062246871156382</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>30065</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20153</v>
+        <v>20540</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42008</v>
+        <v>43694</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03409004646479748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02285122546670748</v>
+        <v>0.02329034759034407</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04763255031071986</v>
+        <v>0.04954447110487727</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -4725,19 +4725,19 @@
         <v>43230</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30724</v>
+        <v>31302</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56602</v>
+        <v>59156</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04947366746365905</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03516152715431575</v>
+        <v>0.03582277186865807</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06477608225895828</v>
+        <v>0.06769990797726357</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -4746,19 +4746,19 @@
         <v>73295</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57927</v>
+        <v>59243</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>93532</v>
+        <v>93060</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0417463191081501</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03299311990809656</v>
+        <v>0.03374263331441526</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05327288709508732</v>
+        <v>0.05300386503831968</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>13267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7682</v>
+        <v>7150</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22261</v>
+        <v>21222</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01504316816305164</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008710933514042262</v>
+        <v>0.008107466962689946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0252416249286895</v>
+        <v>0.02406329068486542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -4796,19 +4796,19 @@
         <v>17488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10197</v>
+        <v>9526</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29593</v>
+        <v>28462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02001371705688058</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01166954167365516</v>
+        <v>0.01090125286610412</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03386685073598122</v>
+        <v>0.03257241599127801</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -4817,19 +4817,19 @@
         <v>30755</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21555</v>
+        <v>20686</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44676</v>
+        <v>43113</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01751696009546374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0122772308003143</v>
+        <v>0.01178199746465598</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02544612473302766</v>
+        <v>0.024555536271166</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>9643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4266</v>
+        <v>5101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18097</v>
+        <v>17982</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01093449790088079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004837168518133809</v>
+        <v>0.005784094705977638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02051955540002463</v>
+        <v>0.0203897343444562</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4867,19 +4867,19 @@
         <v>5349</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2084</v>
+        <v>2102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11804</v>
+        <v>11861</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006121029068457597</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002384919141029016</v>
+        <v>0.002405198485601371</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01350917415592571</v>
+        <v>0.01357351382162929</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -4888,19 +4888,19 @@
         <v>14992</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8527</v>
+        <v>8734</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24546</v>
+        <v>24570</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008538883126957313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004856736904610971</v>
+        <v>0.004974416890767525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01398062968691399</v>
+        <v>0.01399415906902049</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>232162</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>210246</v>
+        <v>209340</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>255203</v>
+        <v>256918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4624222907825636</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4187684772055735</v>
+        <v>0.4169641306834262</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.508314689587315</v>
+        <v>0.5117302028767005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -5013,19 +5013,19 @@
         <v>172117</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>151739</v>
+        <v>150261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192493</v>
+        <v>194965</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3810428917738145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.335927854600284</v>
+        <v>0.3326563819825497</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4261515135846496</v>
+        <v>0.4316242935265737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>375</v>
@@ -5034,19 +5034,19 @@
         <v>404279</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>374494</v>
+        <v>372266</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>438077</v>
+        <v>437323</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4238809787321846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3926511342141157</v>
+        <v>0.3903153766955721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4593172462396891</v>
+        <v>0.4585270842023478</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>145613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>125163</v>
+        <v>123657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167070</v>
+        <v>166960</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2900321031587994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.249300588428045</v>
+        <v>0.246301482523207</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3327700604343865</v>
+        <v>0.3325522634550094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -5084,19 +5084,19 @@
         <v>126296</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109420</v>
+        <v>105795</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>145237</v>
+        <v>145610</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2796007734568872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2422407122479377</v>
+        <v>0.2342142989960302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3215342865028749</v>
+        <v>0.322359259249991</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -5105,19 +5105,19 @@
         <v>271908</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243749</v>
+        <v>243492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>300044</v>
+        <v>302715</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2850918217357508</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2555674285191155</v>
+        <v>0.2552973108882046</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3145912151079394</v>
+        <v>0.317392145202831</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>94631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>78772</v>
+        <v>76895</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>114949</v>
+        <v>114712</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1884857269002085</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1568976091112727</v>
+        <v>0.1531597393945289</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.228955933069836</v>
+        <v>0.2284832571623861</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>98</v>
@@ -5155,19 +5155,19 @@
         <v>108479</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>90586</v>
+        <v>90311</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>127922</v>
+        <v>128411</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.240157317905201</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2005447987192525</v>
+        <v>0.1999357248939849</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2832012011315678</v>
+        <v>0.2842835457505402</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>181</v>
@@ -5176,19 +5176,19 @@
         <v>203110</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>177777</v>
+        <v>174941</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>230613</v>
+        <v>229665</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2129574106103435</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.186396588174979</v>
+        <v>0.1834232828422823</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2417939006577932</v>
+        <v>0.2408006440960047</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>11994</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6057</v>
+        <v>5994</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22012</v>
+        <v>20896</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02388974501072653</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01206517039720476</v>
+        <v>0.0119393870016377</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04384431689985164</v>
+        <v>0.0416200258822245</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -5226,19 +5226,19 @@
         <v>22810</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14609</v>
+        <v>13706</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34268</v>
+        <v>34293</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05049750662280094</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03234148808244942</v>
+        <v>0.03034226558750176</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07586377047748014</v>
+        <v>0.07591892405477473</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -5247,19 +5247,19 @@
         <v>34804</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24122</v>
+        <v>23322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49515</v>
+        <v>49604</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03649119028734754</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02529190195148485</v>
+        <v>0.024452603863219</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05191621654539564</v>
+        <v>0.05200949670325655</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>14738</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8270</v>
+        <v>7402</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26370</v>
+        <v>24551</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02935490675078694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01647248768703608</v>
+        <v>0.01474427002789738</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0525244475448931</v>
+        <v>0.04890004791251069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -5297,19 +5297,19 @@
         <v>15559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8353</v>
+        <v>8321</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25790</v>
+        <v>26140</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03444522728910177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01849215674766368</v>
+        <v>0.01842047703631551</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05709477134314393</v>
+        <v>0.05786977029051648</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -5318,19 +5318,19 @@
         <v>30297</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20696</v>
+        <v>19986</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45374</v>
+        <v>43734</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03176568435167035</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0216991477901418</v>
+        <v>0.02095543810157411</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04757391320056322</v>
+        <v>0.04585411103482934</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>2920</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8522</v>
+        <v>7800</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.005815227396914991</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001858752021593054</v>
+        <v>0.001851721281100291</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01697348626644624</v>
+        <v>0.01553647635500868</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -5368,19 +5368,19 @@
         <v>6440</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2238</v>
+        <v>2939</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13821</v>
+        <v>13838</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01425628295219449</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004954995737622579</v>
+        <v>0.006506018930706176</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0305977232529352</v>
+        <v>0.0306345889457789</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -5389,19 +5389,19 @@
         <v>9359</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4332</v>
+        <v>4209</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17820</v>
+        <v>17346</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009812914282703335</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004541786441672728</v>
+        <v>0.004413210662092927</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01868421070795705</v>
+        <v>0.01818750525810892</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>1484585</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1425488</v>
+        <v>1432236</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1545464</v>
+        <v>1548631</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4361846084990006</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4188213963493077</v>
+        <v>0.4208040210263658</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4540714528429325</v>
+        <v>0.4550017632752446</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1072</v>
@@ -5514,19 +5514,19 @@
         <v>1161355</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1105617</v>
+        <v>1104320</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1224244</v>
+        <v>1220961</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3283738745242596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3126138058481456</v>
+        <v>0.312246986985477</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3461558115432736</v>
+        <v>0.3452272999444985</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2478</v>
@@ -5535,19 +5535,19 @@
         <v>2645941</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2565532</v>
+        <v>2565490</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2728414</v>
+        <v>2734301</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3812453303097804</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3696595024490568</v>
+        <v>0.369653476825452</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3931286162031793</v>
+        <v>0.3939768916158662</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>1000505</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>946544</v>
+        <v>941882</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1056676</v>
+        <v>1059485</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2939572948841822</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2781033366959939</v>
+        <v>0.2767333192749961</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.310461072872722</v>
+        <v>0.3112864017473911</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>944</v>
@@ -5585,19 +5585,19 @@
         <v>1010744</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>957594</v>
+        <v>957060</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1067169</v>
+        <v>1067922</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2857883383017908</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2707603540720386</v>
+        <v>0.2706092406637961</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3017426121555783</v>
+        <v>0.3019555102110466</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1879</v>
@@ -5606,19 +5606,19 @@
         <v>2011248</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1934873</v>
+        <v>1937687</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2096699</v>
+        <v>2094387</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2897944758248034</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2787897661976981</v>
+        <v>0.2791952958302723</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3021067166572501</v>
+        <v>0.3017735998920662</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>645010</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>594693</v>
+        <v>599352</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>693199</v>
+        <v>696237</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1895097293507087</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1747260834875338</v>
+        <v>0.1760951915824747</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2036681065425953</v>
+        <v>0.2045606866523588</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>836</v>
@@ -5656,19 +5656,19 @@
         <v>896367</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>847466</v>
+        <v>840460</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>949804</v>
+        <v>947414</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2534484079166205</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2396214687285594</v>
+        <v>0.237640575471545</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2685577461039609</v>
+        <v>0.2678817756079391</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1427</v>
@@ -5677,19 +5677,19 @@
         <v>1541377</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1469784</v>
+        <v>1473032</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1616365</v>
+        <v>1609181</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2220922442754913</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2117764938893544</v>
+        <v>0.2122445942084743</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2328970245899678</v>
+        <v>0.2318618065335156</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>152343</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>128908</v>
+        <v>130398</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>181863</v>
+        <v>178755</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04475964253469878</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03787429390993181</v>
+        <v>0.03831211769926751</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05343304866118437</v>
+        <v>0.05251984719983817</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>224</v>
@@ -5727,19 +5727,19 @@
         <v>244135</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>214867</v>
+        <v>212623</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>275370</v>
+        <v>273887</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06902941320618666</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06075376316042869</v>
+        <v>0.06011932503089642</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07786099203814457</v>
+        <v>0.07744182734496106</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>368</v>
@@ -5748,19 +5748,19 @@
         <v>396478</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>361315</v>
+        <v>359797</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>439595</v>
+        <v>439479</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05712727638108226</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05206074030059986</v>
+        <v>0.05184205982309718</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0633398456117012</v>
+        <v>0.06332319168631281</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>87943</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>69645</v>
+        <v>69096</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>108730</v>
+        <v>108806</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02583854835386067</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02046234021785887</v>
+        <v>0.02030092449151038</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03194572607611453</v>
+        <v>0.0319682347122948</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>135</v>
@@ -5798,19 +5798,19 @@
         <v>150700</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>125172</v>
+        <v>127072</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>176077</v>
+        <v>177183</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04261058121730726</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03539253188713977</v>
+        <v>0.03592978383208532</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04978583276903663</v>
+        <v>0.05009867567322816</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>216</v>
@@ -5819,19 +5819,19 @@
         <v>238644</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>207703</v>
+        <v>208846</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>270725</v>
+        <v>268944</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03438540955507948</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02992720929618627</v>
+        <v>0.03009195134787004</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03900795621520402</v>
+        <v>0.0387512860821905</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>33185</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22723</v>
+        <v>22200</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46062</v>
+        <v>46773</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009750176377548964</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006676316562794397</v>
+        <v>0.006522603267335321</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01353353399031961</v>
+        <v>0.01374235421140206</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -5869,19 +5869,19 @@
         <v>73384</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59175</v>
+        <v>56421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>92796</v>
+        <v>91461</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02074938483383512</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01673182264934928</v>
+        <v>0.01595295755964259</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0262381876539603</v>
+        <v>0.02586061560988154</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -5890,19 +5890,19 @@
         <v>106569</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>88186</v>
+        <v>86527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>129617</v>
+        <v>129990</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01535526365376311</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01270648636128343</v>
+        <v>0.01246736070628347</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01867603780631198</v>
+        <v>0.01872979995849885</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>328843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>300277</v>
+        <v>297059</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>364762</v>
+        <v>361791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2920904952897573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2667172898499603</v>
+        <v>0.2638590129578104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3239951526928413</v>
+        <v>0.3213563269133331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -6255,19 +6255,19 @@
         <v>302124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>273858</v>
+        <v>272604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>336324</v>
+        <v>334573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2406223480036784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2181103528913797</v>
+        <v>0.2171113995275027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2678601665217021</v>
+        <v>0.2664655752084351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>593</v>
@@ -6276,19 +6276,19 @@
         <v>630968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>587463</v>
+        <v>589095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>673034</v>
+        <v>674849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2649540992691739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2466856510294481</v>
+        <v>0.2473712442393868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2826184523461298</v>
+        <v>0.2833805997245641</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>345447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315238</v>
+        <v>314638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377012</v>
+        <v>379878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3068388883234613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2800056981267422</v>
+        <v>0.27947307724641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3348756045575496</v>
+        <v>0.3374214619510784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>346</v>
@@ -6326,19 +6326,19 @@
         <v>360982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327649</v>
+        <v>329282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392966</v>
+        <v>394054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2874983326671034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2609507534909826</v>
+        <v>0.2622513892710697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3129714948610653</v>
+        <v>0.3138378284188586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -6347,19 +6347,19 @@
         <v>706429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>660906</v>
+        <v>660429</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748864</v>
+        <v>751294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2966416497356441</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2775256725855789</v>
+        <v>0.2773255442252175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3144607921319746</v>
+        <v>0.3154811406257076</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>305022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>276512</v>
+        <v>276038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>335015</v>
+        <v>338547</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2709319500910606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2456079821589524</v>
+        <v>0.2451869492307507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2975724942722374</v>
+        <v>0.3007100002522734</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -6397,19 +6397,19 @@
         <v>362161</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>334143</v>
+        <v>328112</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>398291</v>
+        <v>394820</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2884371977327948</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2661227851836199</v>
+        <v>0.2613196858455215</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3172130084221292</v>
+        <v>0.3144482061245455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>635</v>
@@ -6418,19 +6418,19 @@
         <v>667183</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>621405</v>
+        <v>621595</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>710555</v>
+        <v>717069</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2801615291121218</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2609387241655579</v>
+        <v>0.2610183345510524</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2983744072440249</v>
+        <v>0.3011097211311696</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>80932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64653</v>
+        <v>65857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99015</v>
+        <v>99698</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07188684916412558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05742690165503613</v>
+        <v>0.0584966313452538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08794907667297933</v>
+        <v>0.08855511916981725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -6468,19 +6468,19 @@
         <v>120476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100123</v>
+        <v>99977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144360</v>
+        <v>142972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09595088945549544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0797412953518052</v>
+        <v>0.0796254438056918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1149731480358237</v>
+        <v>0.1138674775251965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -6489,19 +6489,19 @@
         <v>201408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176335</v>
+        <v>174821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>229401</v>
+        <v>231404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08457452808080021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07404628106243356</v>
+        <v>0.07341025675124258</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0963293173924847</v>
+        <v>0.0971705285635831</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>35636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25272</v>
+        <v>24851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48549</v>
+        <v>48716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03165299596678457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02244725385793708</v>
+        <v>0.02207390541352179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04312342022599755</v>
+        <v>0.04327112616550538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -6539,19 +6539,19 @@
         <v>77301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61735</v>
+        <v>61398</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96223</v>
+        <v>97123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0615649819329088</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04916797096873893</v>
+        <v>0.04889972336472184</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07663534584435018</v>
+        <v>0.0773521878739043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -6560,19 +6560,19 @@
         <v>112937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93707</v>
+        <v>92801</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>138714</v>
+        <v>134794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04742398326164741</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03934908563564485</v>
+        <v>0.03896879444226158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05824833973221237</v>
+        <v>0.05660214051831971</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>29946</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20496</v>
+        <v>19785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43864</v>
+        <v>42635</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02659882116481062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0182049195035902</v>
+        <v>0.01757358256793305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03896142865773979</v>
+        <v>0.03786984184856177</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -6610,19 +6610,19 @@
         <v>32553</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21750</v>
+        <v>23133</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46514</v>
+        <v>45984</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02592625020801916</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01732234383715208</v>
+        <v>0.0184240877859325</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03704563563901709</v>
+        <v>0.03662360634202657</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -6631,19 +6631,19 @@
         <v>62499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47998</v>
+        <v>48248</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82142</v>
+        <v>80295</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02624421054061253</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02015537334711777</v>
+        <v>0.02026020110894675</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0344926743859805</v>
+        <v>0.03371744230779104</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>371287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>343108</v>
+        <v>340756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399158</v>
+        <v>402871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4089794779967321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3779401221889571</v>
+        <v>0.3753489541312816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4396800565460848</v>
+        <v>0.4437692229991463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -6756,19 +6756,19 @@
         <v>345005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313118</v>
+        <v>316382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>377648</v>
+        <v>378799</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.343843276454719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3120633243774063</v>
+        <v>0.3153169409806662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3763766405498885</v>
+        <v>0.3775235162366816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>686</v>
@@ -6777,19 +6777,19 @@
         <v>716292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>672987</v>
+        <v>673414</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>760098</v>
+        <v>761939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3747833104107565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.352124725697274</v>
+        <v>0.3523483152656694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3977036300018886</v>
+        <v>0.3986669725372812</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>299204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270872</v>
+        <v>272030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>325275</v>
+        <v>328672</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3295790629776934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.29837070623438</v>
+        <v>0.2996462843135653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3582961548155985</v>
+        <v>0.3620382820302857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>315</v>
@@ -6827,19 +6827,19 @@
         <v>330103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>301567</v>
+        <v>302317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>361859</v>
+        <v>360695</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3289913027823022</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3005519208128405</v>
+        <v>0.3012986227391017</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3606406721990343</v>
+        <v>0.3594798665728877</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>609</v>
@@ -6848,19 +6848,19 @@
         <v>629307</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>589226</v>
+        <v>589830</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>671668</v>
+        <v>672466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3292704919270926</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3082986817020978</v>
+        <v>0.3086148411123941</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3514349474679521</v>
+        <v>0.3518524457945127</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>182965</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159762</v>
+        <v>156405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208058</v>
+        <v>209046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2015391216885803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1759805309728769</v>
+        <v>0.1722832637497838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.22917918321984</v>
+        <v>0.2302681846353167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>217</v>
@@ -6898,19 +6898,19 @@
         <v>232129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205101</v>
+        <v>203097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259696</v>
+        <v>258870</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2313472693141739</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2044099409755298</v>
+        <v>0.2024130761925879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2588214883410258</v>
+        <v>0.2579986986756176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>392</v>
@@ -6919,19 +6919,19 @@
         <v>415094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>376855</v>
+        <v>376284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>450667</v>
+        <v>451691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2171882444114464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1971807775198736</v>
+        <v>0.1968816354957596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2358008262472867</v>
+        <v>0.236336921011152</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>29579</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19976</v>
+        <v>20459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42194</v>
+        <v>41850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03258160179460445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02200428004609405</v>
+        <v>0.0225357968161147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04647696525110907</v>
+        <v>0.04609870693078243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -6969,19 +6969,19 @@
         <v>53104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40373</v>
+        <v>40840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70341</v>
+        <v>70760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05292530062830924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04023723333753994</v>
+        <v>0.04070287531579148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07010441760787187</v>
+        <v>0.07052189048923427</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -6990,19 +6990,19 @@
         <v>82683</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66383</v>
+        <v>65142</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101175</v>
+        <v>101371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04326193804643935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03473332363397131</v>
+        <v>0.03408416768632733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05293730678245947</v>
+        <v>0.05303990745076952</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>12302</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6535</v>
+        <v>6887</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20158</v>
+        <v>20199</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01355034418652527</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007198871339502818</v>
+        <v>0.007586656032598976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02220475635787825</v>
+        <v>0.02224952087826373</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -7040,19 +7040,19 @@
         <v>28380</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18612</v>
+        <v>18219</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41866</v>
+        <v>40188</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02828487772017994</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01854941994121927</v>
+        <v>0.0181574524907499</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04172454660493748</v>
+        <v>0.04005264093351574</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -7061,19 +7061,19 @@
         <v>40682</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>29685</v>
+        <v>27735</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55096</v>
+        <v>54709</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02128589778175661</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01553201643720248</v>
+        <v>0.01451165927838549</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02882789144543981</v>
+        <v>0.02862528304676877</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>12501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7101</v>
+        <v>6720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22127</v>
+        <v>21157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01377039135586441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007822057584225467</v>
+        <v>0.007402400039187474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02437293958432062</v>
+        <v>0.02330485386874056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -7111,19 +7111,19 @@
         <v>14657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8317</v>
+        <v>8297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23152</v>
+        <v>24764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01460797310031564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008289407730655817</v>
+        <v>0.00826884878453707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02307417720967865</v>
+        <v>0.02468035935042765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -7132,19 +7132,19 @@
         <v>27159</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18228</v>
+        <v>18143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39131</v>
+        <v>38903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01421011742250853</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00953728797177383</v>
+        <v>0.009492844258808697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02047449394925134</v>
+        <v>0.02035494518535699</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>388993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>361627</v>
+        <v>360644</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>417744</v>
+        <v>417805</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4728418178066121</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4395769812848924</v>
+        <v>0.4383823257833051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5077897526408004</v>
+        <v>0.5078638746188079</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>272</v>
@@ -7257,19 +7257,19 @@
         <v>278522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>255035</v>
+        <v>252232</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>305339</v>
+        <v>306310</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3612197928989658</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3307600051892761</v>
+        <v>0.3271240683916592</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3959993920858698</v>
+        <v>0.3972584938933341</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>646</v>
@@ -7278,19 +7278,19 @@
         <v>667515</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>628073</v>
+        <v>628070</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>707042</v>
+        <v>705264</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4188382348964347</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3940898596295643</v>
+        <v>0.3940878085169014</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4436399179669782</v>
+        <v>0.4425238831857688</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>293895</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>264924</v>
+        <v>267576</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>320638</v>
+        <v>320898</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3572446877841606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3220292434184676</v>
+        <v>0.3252528141729182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3897518748042797</v>
+        <v>0.3900688617209052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>264</v>
@@ -7328,19 +7328,19 @@
         <v>277456</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251748</v>
+        <v>252608</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>306202</v>
+        <v>305276</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3598380830483184</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3264968653986773</v>
+        <v>0.3276111669882149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3971193331865736</v>
+        <v>0.395917261427546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>546</v>
@@ -7349,19 +7349,19 @@
         <v>571351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>533101</v>
+        <v>533793</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>609881</v>
+        <v>610382</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3584993920979614</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3344989134716815</v>
+        <v>0.3349333137311163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3826750121480533</v>
+        <v>0.3829898693487251</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>108918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89425</v>
+        <v>89391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130580</v>
+        <v>130957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1323957171939892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1087005797716596</v>
+        <v>0.1086593594724218</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1587274267578296</v>
+        <v>0.1591852094874334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -7399,19 +7399,19 @@
         <v>164554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>140697</v>
+        <v>143897</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>187345</v>
+        <v>188703</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2134123423260359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.182472117900673</v>
+        <v>0.1866226884218695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2429707129043734</v>
+        <v>0.2447316343126419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>249</v>
@@ -7420,19 +7420,19 @@
         <v>273472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>243118</v>
+        <v>245149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>306300</v>
+        <v>308921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1715921753843972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1525463694790875</v>
+        <v>0.1538208746080467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1921908236886505</v>
+        <v>0.1938352164104115</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>21908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14062</v>
+        <v>13768</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32226</v>
+        <v>32273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02663088812051086</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01709286518978934</v>
+        <v>0.01673618147708705</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03917271982365116</v>
+        <v>0.039229234888033</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -7470,19 +7470,19 @@
         <v>29638</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19261</v>
+        <v>18624</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41219</v>
+        <v>43414</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03843742990577952</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0249803294712865</v>
+        <v>0.02415333791203172</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05345817803175532</v>
+        <v>0.05630379664250506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -7491,19 +7491,19 @@
         <v>51546</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39476</v>
+        <v>38398</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68834</v>
+        <v>68596</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03234298265302595</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02476978796153869</v>
+        <v>0.02409294562484241</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04319065611301044</v>
+        <v>0.04304118701863858</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>5891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2577</v>
+        <v>2316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12275</v>
+        <v>13252</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007160686718295713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003132820451338734</v>
+        <v>0.002814744818621386</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01492131575249351</v>
+        <v>0.0161082072104883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -7541,19 +7541,19 @@
         <v>13019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6787</v>
+        <v>6551</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21826</v>
+        <v>23111</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0168841409235988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008802337610541095</v>
+        <v>0.0084960787997572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0283070349474641</v>
+        <v>0.02997313591649304</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -7562,19 +7562,19 @@
         <v>18910</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11235</v>
+        <v>10076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29577</v>
+        <v>29066</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01186496766808009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007049193234888009</v>
+        <v>0.00632214211042211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01855840896585031</v>
+        <v>0.01823760527335059</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>3065</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8285</v>
+        <v>8594</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003726202376431501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001047154523619781</v>
+        <v>0.001049547244997393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01007126285218006</v>
+        <v>0.01044603026965326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -7612,19 +7612,19 @@
         <v>7871</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3446</v>
+        <v>3416</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15999</v>
+        <v>15811</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01020821089730157</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004468912806349208</v>
+        <v>0.004429958308396062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02074919379203251</v>
+        <v>0.02050527707495735</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -7633,19 +7633,19 @@
         <v>10937</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20171</v>
+        <v>20425</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006862247300100536</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003514300138320996</v>
+        <v>0.003481530556870841</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01265616710788268</v>
+        <v>0.01281579159872426</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>263313</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>240469</v>
+        <v>238069</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284819</v>
+        <v>288343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5207167037173395</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4755402668507904</v>
+        <v>0.4707936367118259</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5632450077436395</v>
+        <v>0.5702140739530359</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>192</v>
@@ -7758,19 +7758,19 @@
         <v>204935</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>183308</v>
+        <v>182460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>227423</v>
+        <v>226889</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4184922615068722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3743292438418281</v>
+        <v>0.3725964464370748</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4644139891418694</v>
+        <v>0.4633234337045654</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>439</v>
@@ -7779,19 +7779,19 @@
         <v>468248</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>434782</v>
+        <v>434032</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>499901</v>
+        <v>502289</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4704249385509596</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4368032893107611</v>
+        <v>0.436050073977094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5022247461729649</v>
+        <v>0.5046234118707327</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>164270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143398</v>
+        <v>140659</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>186133</v>
+        <v>187170</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3248523220685827</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2835772441685037</v>
+        <v>0.278161411018006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3680883261531037</v>
+        <v>0.3701388209651593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -7829,19 +7829,19 @@
         <v>148813</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128027</v>
+        <v>127683</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169659</v>
+        <v>170727</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3038866987922738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2614398623431837</v>
+        <v>0.2607377848507896</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3464564482799058</v>
+        <v>0.3486371186640156</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>290</v>
@@ -7850,19 +7850,19 @@
         <v>313082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>282589</v>
+        <v>285136</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345137</v>
+        <v>347975</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.314537781049048</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2839026381186109</v>
+        <v>0.2864619291634154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3467415947346891</v>
+        <v>0.3495930012247182</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>60787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47064</v>
+        <v>46316</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>80233</v>
+        <v>76241</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1202099333072803</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09307213457193768</v>
+        <v>0.09159148469587301</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1586659919402051</v>
+        <v>0.1507704559769939</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>92</v>
@@ -7900,19 +7900,19 @@
         <v>99663</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>83426</v>
+        <v>81699</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>118036</v>
+        <v>118765</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2035200472196755</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.170361754920773</v>
+        <v>0.1668355272646016</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2410374441073204</v>
+        <v>0.2425270958486617</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>147</v>
@@ -7921,19 +7921,19 @@
         <v>160450</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>135825</v>
+        <v>135496</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>186229</v>
+        <v>184558</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1611963411982644</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1364562159834667</v>
+        <v>0.1361257333686096</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1870950944019922</v>
+        <v>0.1854159741535056</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>9825</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4402</v>
+        <v>4500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18252</v>
+        <v>18154</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01942952973642341</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008705522179629274</v>
+        <v>0.008898961071340521</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03609442859177978</v>
+        <v>0.03590041056414237</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -7971,19 +7971,19 @@
         <v>15649</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9137</v>
+        <v>9380</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25851</v>
+        <v>25200</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03195561778319262</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01865945651495153</v>
+        <v>0.01915493110605062</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05279051581670007</v>
+        <v>0.051460877542704</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -7992,19 +7992,19 @@
         <v>25474</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17026</v>
+        <v>16110</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38169</v>
+        <v>37893</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02559203906275956</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01710515464715114</v>
+        <v>0.01618510389385666</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03834678294872226</v>
+        <v>0.03806918344047575</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>5238</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2039</v>
+        <v>2009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12769</v>
+        <v>12191</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01035919449754095</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004031875127492831</v>
+        <v>0.003973319300107769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02525210161617773</v>
+        <v>0.02410890669377034</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -8042,19 +8042,19 @@
         <v>10794</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5450</v>
+        <v>5322</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19360</v>
+        <v>19904</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02204232321710178</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01112894174254849</v>
+        <v>0.01086842003599531</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0395343370893436</v>
+        <v>0.04064496258392086</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -8063,19 +8063,19 @@
         <v>16032</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9222</v>
+        <v>9322</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>25414</v>
+        <v>24801</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01610698977299004</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009264810300370045</v>
+        <v>0.009365143191629965</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02553213347401536</v>
+        <v>0.02491674941766449</v>
       </c>
     </row>
     <row r="30">
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7602</v>
+        <v>7672</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004432316672833275</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01503313842710159</v>
+        <v>0.01517231440182113</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -8113,19 +8113,19 @@
         <v>9844</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4574</v>
+        <v>4352</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19268</v>
+        <v>20813</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02010305148088405</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009341375948314625</v>
+        <v>0.008888109467460296</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03934617910367984</v>
+        <v>0.04250211865770957</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -8134,19 +8134,19 @@
         <v>12086</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5440</v>
+        <v>5546</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22619</v>
+        <v>21758</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01214191036597848</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005464937454907663</v>
+        <v>0.005571949736416331</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02272459235440196</v>
+        <v>0.02185941300319362</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>1352437</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1291945</v>
+        <v>1297555</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1417047</v>
+        <v>1412773</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4022703551328815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3842776192187408</v>
+        <v>0.385946092986579</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4214879516014213</v>
+        <v>0.4202166747121988</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1081</v>
@@ -8259,19 +8259,19 @@
         <v>1130586</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1075669</v>
+        <v>1072409</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1191564</v>
+        <v>1186620</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3212136921713095</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3056111663466436</v>
+        <v>0.3046849889375589</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3385382619327419</v>
+        <v>0.3371336091105347</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2364</v>
@@ -8280,19 +8280,19 @@
         <v>2483023</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2399686</v>
+        <v>2401133</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2561108</v>
+        <v>2558435</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3608131647578341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.348703215564585</v>
+        <v>0.3489134773650877</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3721598359692531</v>
+        <v>0.371771489853665</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>1102816</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1047120</v>
+        <v>1052196</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1157502</v>
+        <v>1159910</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3280228661366161</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3114565946867378</v>
+        <v>0.3129662319477598</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3442887078517105</v>
+        <v>0.3450048827120465</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1063</v>
@@ -8330,19 +8330,19 @@
         <v>1117353</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1064502</v>
+        <v>1061687</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1179201</v>
+        <v>1174330</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3174542305402037</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3024385784415617</v>
+        <v>0.3016386416109312</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3350258615207095</v>
+        <v>0.333641952470179</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2117</v>
@@ -8351,19 +8351,19 @@
         <v>2220170</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2142857</v>
+        <v>2138366</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2298304</v>
+        <v>2300744</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3226174383541685</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3113828707039855</v>
+        <v>0.3107303934853533</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3339712287613781</v>
+        <v>0.3343257752232833</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>657692</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>613119</v>
+        <v>610978</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>704790</v>
+        <v>706747</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1956247323326027</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1823669041888331</v>
+        <v>0.1817298353673785</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.209633525092053</v>
+        <v>0.2102155867410427</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>800</v>
@@ -8401,19 +8401,19 @@
         <v>858506</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>808490</v>
+        <v>805527</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>914091</v>
+        <v>905312</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2439124577111679</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2297020879988455</v>
+        <v>0.2288604822895064</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2597047839541379</v>
+        <v>0.2572105865221646</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1423</v>
@@ -8422,19 +8422,19 @@
         <v>1516199</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1445742</v>
+        <v>1445885</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1588649</v>
+        <v>1588832</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2203219422923348</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2100837589868258</v>
+        <v>0.2101044871002686</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2308498879097224</v>
+        <v>0.2308764960881777</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>142244</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>119091</v>
+        <v>119397</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>168631</v>
+        <v>165941</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04230932246103978</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03542268028369538</v>
+        <v>0.03551354518026095</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05015769935088711</v>
+        <v>0.04935755590143553</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>196</v>
@@ -8472,19 +8472,19 @@
         <v>218866</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>191573</v>
+        <v>189723</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>250569</v>
+        <v>250362</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06218252998290735</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05442829413885734</v>
+        <v>0.053902806241853</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07118981753090703</v>
+        <v>0.07113107748029271</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>335</v>
@@ -8493,19 +8493,19 @@
         <v>361110</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>325645</v>
+        <v>324185</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>403705</v>
+        <v>401761</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05247366080775263</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04732009910207784</v>
+        <v>0.04710803783203847</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05866318021045271</v>
+        <v>0.05838071165754507</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>59067</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46425</v>
+        <v>45227</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>76061</v>
+        <v>75188</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0175688197409566</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0138086668912573</v>
+        <v>0.01345223844278353</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02262362286840953</v>
+        <v>0.02236402764221924</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>117</v>
@@ -8543,19 +8543,19 @@
         <v>129494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>107661</v>
+        <v>107058</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>154705</v>
+        <v>152692</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03679085875499637</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03058790047837397</v>
+        <v>0.03041648629943814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04395353427483978</v>
+        <v>0.0433816491127275</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>174</v>
@@ -8564,19 +8564,19 @@
         <v>188561</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>161253</v>
+        <v>162045</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>217667</v>
+        <v>218411</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02740011184805248</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02343204211088997</v>
+        <v>0.02354709072749662</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03162956992532428</v>
+        <v>0.03173778802457727</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>47754</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35378</v>
+        <v>34318</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>65024</v>
+        <v>62838</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01420390419590336</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01052291450004755</v>
+        <v>0.01020765196466112</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01934089949408933</v>
+        <v>0.01869064730497278</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>58</v>
@@ -8614,19 +8614,19 @@
         <v>64926</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>48645</v>
+        <v>49350</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>83417</v>
+        <v>84390</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01844623083941527</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01382066144228067</v>
+        <v>0.01402108269085169</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0236999591761188</v>
+        <v>0.02397633109060065</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>102</v>
@@ -8635,19 +8635,19 @@
         <v>112679</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>91172</v>
+        <v>91094</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>137185</v>
+        <v>135861</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01637368193985747</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01324842937609951</v>
+        <v>0.0132370582055256</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01993460142825652</v>
+        <v>0.01974220428289985</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>154914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132429</v>
+        <v>133867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180002</v>
+        <v>182813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3106104180942133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2655273196164415</v>
+        <v>0.2684113140517911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3609144191689648</v>
+        <v>0.3665498694178173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -9000,19 +9000,19 @@
         <v>150058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131937</v>
+        <v>130288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171780</v>
+        <v>170271</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.24113533060421</v>
+        <v>0.2411353306042101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2120151354700136</v>
+        <v>0.2093659494608488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2760407544787538</v>
+        <v>0.2736160931375671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>314</v>
@@ -9021,19 +9021,19 @@
         <v>304972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>274785</v>
+        <v>274271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337523</v>
+        <v>335565</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2720441313818573</v>
+        <v>0.2720441313818575</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2451164536057967</v>
+        <v>0.2446581637223176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3010806584825655</v>
+        <v>0.2993336268311876</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>122223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100728</v>
+        <v>99935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144348</v>
+        <v>144592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.245063121205204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2019645684686121</v>
+        <v>0.2003763469779044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2894262197771412</v>
+        <v>0.2899156669600847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -9071,19 +9071,19 @@
         <v>146639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128179</v>
+        <v>127171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165811</v>
+        <v>167125</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2356408469818804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2059771288682286</v>
+        <v>0.2043559559910213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2664486628177902</v>
+        <v>0.2685606822833679</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>299</v>
@@ -9092,19 +9092,19 @@
         <v>268862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244071</v>
+        <v>239401</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>301051</v>
+        <v>299207</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2398327265082354</v>
+        <v>0.2398327265082355</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2177188465465177</v>
+        <v>0.2135528880354538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2685468112738089</v>
+        <v>0.2669017683228906</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>118317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101482</v>
+        <v>99354</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141807</v>
+        <v>142355</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2372318265255303</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2034762339060647</v>
+        <v>0.1992098171443355</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.284330800910241</v>
+        <v>0.2854304552377095</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>247</v>
@@ -9142,19 +9142,19 @@
         <v>172681</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153309</v>
+        <v>154014</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193209</v>
+        <v>194764</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2774882141633186</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2463588265118424</v>
+        <v>0.2474919369753857</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.310475899302033</v>
+        <v>0.3129753796955049</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>361</v>
@@ -9163,19 +9163,19 @@
         <v>290998</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>264561</v>
+        <v>262233</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>318945</v>
+        <v>319838</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2595785330031015</v>
+        <v>0.2595785330031016</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2359963002767458</v>
+        <v>0.2339199540743487</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2845081052699432</v>
+        <v>0.2853048619215784</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>40467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29162</v>
+        <v>30439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54129</v>
+        <v>54731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08113919330083366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05847174550713286</v>
+        <v>0.06103146257732504</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1085313561731981</v>
+        <v>0.1097385342576327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -9213,19 +9213,19 @@
         <v>78955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64593</v>
+        <v>66094</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95259</v>
+        <v>96086</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1268762577052318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1037975819079563</v>
+        <v>0.1062101943378171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1530751440722122</v>
+        <v>0.1544055219442744</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -9234,19 +9234,19 @@
         <v>119422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101659</v>
+        <v>102267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140288</v>
+        <v>139564</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1065282759623749</v>
+        <v>0.106528275962375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09068252399269972</v>
+        <v>0.09122536463182385</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1251408920148984</v>
+        <v>0.1244949158571704</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>35840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25767</v>
+        <v>25239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48871</v>
+        <v>48297</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07186169234363812</v>
+        <v>0.07186169234363811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05166443039977513</v>
+        <v>0.05060528071252754</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09798941382031805</v>
+        <v>0.09683782965934182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -9284,19 +9284,19 @@
         <v>47702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36326</v>
+        <v>37394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58672</v>
+        <v>60384</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07665475306165841</v>
+        <v>0.07665475306165842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05837405724663522</v>
+        <v>0.06008960536827963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09428208319462142</v>
+        <v>0.0970335129516838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>115</v>
@@ -9305,19 +9305,19 @@
         <v>83542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69121</v>
+        <v>69600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101756</v>
+        <v>101516</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07452236627092894</v>
+        <v>0.07452236627092897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06165802686231391</v>
+        <v>0.06208524274577654</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09076933482933294</v>
+        <v>0.09055560416622506</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>26979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17607</v>
+        <v>17913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38455</v>
+        <v>37686</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0540937485305806</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03530353667291162</v>
+        <v>0.03591683483939681</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07710453507769545</v>
+        <v>0.0755629585361046</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -9355,19 +9355,19 @@
         <v>26264</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18888</v>
+        <v>19398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35356</v>
+        <v>35870</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04220459748370078</v>
+        <v>0.04220459748370079</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03035215544414389</v>
+        <v>0.03117156139481422</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05681510507764024</v>
+        <v>0.05764059203487033</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -9376,19 +9376,19 @@
         <v>53243</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41052</v>
+        <v>41033</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67023</v>
+        <v>67811</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04749396687350172</v>
+        <v>0.04749396687350173</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03661945802009001</v>
+        <v>0.03660280829817335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05978658767045049</v>
+        <v>0.06048954791581428</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>376647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339544</v>
+        <v>342755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>408333</v>
+        <v>411550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3932391055136435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3545017465069598</v>
+        <v>0.3578538126680308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4263209623039615</v>
+        <v>0.4296802800709738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>479</v>
@@ -9501,19 +9501,19 @@
         <v>367232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>337271</v>
+        <v>339331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>395763</v>
+        <v>396750</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3292694796401144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.302405595379464</v>
+        <v>0.3042533011992473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3548517109124318</v>
+        <v>0.3557367358726456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>802</v>
@@ -9522,19 +9522,19 @@
         <v>743878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>700174</v>
+        <v>699952</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>789920</v>
+        <v>790662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.358824521329233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3377428003181947</v>
+        <v>0.337635777082485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3810334026689685</v>
+        <v>0.381391751220746</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>280592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>250222</v>
+        <v>253461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>313259</v>
+        <v>315021</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2929533284815912</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2612448280465642</v>
+        <v>0.2646266979749033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3270593906266409</v>
+        <v>0.3288980313566386</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>459</v>
@@ -9572,19 +9572,19 @@
         <v>323025</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>297236</v>
+        <v>297414</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>350048</v>
+        <v>351213</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2896322409778778</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2665098682991993</v>
+        <v>0.2666690725976293</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3138622818691219</v>
+        <v>0.3149070035506799</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>716</v>
@@ -9593,19 +9593,19 @@
         <v>603617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>563637</v>
+        <v>564307</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>646435</v>
+        <v>647947</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2911666391908597</v>
+        <v>0.2911666391908596</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2718813170077157</v>
+        <v>0.2722045715287538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3118208159070067</v>
+        <v>0.3125498854394952</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>199739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173201</v>
+        <v>173218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225301</v>
+        <v>223324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2085377791305654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1808311197590365</v>
+        <v>0.1808488443402313</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2352262051254241</v>
+        <v>0.2331623253403445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>396</v>
@@ -9643,19 +9643,19 @@
         <v>250884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229521</v>
+        <v>226557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>274835</v>
+        <v>272144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2249487889780306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2057941926447751</v>
+        <v>0.2031370145565461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2464242902662208</v>
+        <v>0.2440117714327061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>613</v>
@@ -9664,19 +9664,19 @@
         <v>450622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>415138</v>
+        <v>419171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484392</v>
+        <v>485548</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2173666267630867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2002502210038301</v>
+        <v>0.2021956821325208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2336562898407993</v>
+        <v>0.234213890174718</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>68804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55154</v>
+        <v>55535</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85717</v>
+        <v>87118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0718352970654173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05758383913309276</v>
+        <v>0.05798095358264834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08949255061358316</v>
+        <v>0.0909557268694941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -9714,19 +9714,19 @@
         <v>104536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89052</v>
+        <v>89961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121585</v>
+        <v>120078</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09372980618212275</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07984641950404971</v>
+        <v>0.08066106245077188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1090159724029392</v>
+        <v>0.1076648895585661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>240</v>
@@ -9735,19 +9735,19 @@
         <v>173340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152327</v>
+        <v>151861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>198140</v>
+        <v>197524</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08361417519521731</v>
+        <v>0.08361417519521733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07347811518139227</v>
+        <v>0.07325321069734926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09557660716402056</v>
+        <v>0.09527978878717284</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>22684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14209</v>
+        <v>13497</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>37363</v>
+        <v>36135</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02368353019323594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01483527100312577</v>
+        <v>0.01409117925443957</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03900869310560269</v>
+        <v>0.03772644066910254</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>86</v>
@@ -9785,19 +9785,19 @@
         <v>52751</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42457</v>
+        <v>41953</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64198</v>
+        <v>64902</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0472977406332168</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03806809533701773</v>
+        <v>0.03761622947914225</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05756187128504182</v>
+        <v>0.05819268490129012</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>107</v>
@@ -9806,19 +9806,19 @@
         <v>75435</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>61171</v>
+        <v>61411</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91766</v>
+        <v>92344</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03638757874812037</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02950723597846042</v>
+        <v>0.02962258312190922</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04426511580972008</v>
+        <v>0.04454412440081234</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>9340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4900</v>
+        <v>5170</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17263</v>
+        <v>18432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009750959615546622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005116214807370906</v>
+        <v>0.005398160519714961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0180234512828045</v>
+        <v>0.01924429243839252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -9856,19 +9856,19 @@
         <v>16865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11007</v>
+        <v>10633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25496</v>
+        <v>25446</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01512194358863786</v>
+        <v>0.01512194358863787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009869074001199083</v>
+        <v>0.009533584595574287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.022860025222204</v>
+        <v>0.02281567650577452</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -9877,19 +9877,19 @@
         <v>26205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17836</v>
+        <v>18351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36869</v>
+        <v>38093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01264045877348301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008603545822891004</v>
+        <v>0.00885192928436913</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01778451392628828</v>
+        <v>0.01837513521644179</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>553786</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>517561</v>
+        <v>519743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>587407</v>
+        <v>587785</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5291893856207307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4945732844657635</v>
+        <v>0.4966590262164914</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5613170819213169</v>
+        <v>0.5616792075118459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>625</v>
@@ -10002,19 +10002,19 @@
         <v>443508</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>415260</v>
+        <v>414272</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>472139</v>
+        <v>472588</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4235072192399465</v>
+        <v>0.4235072192399464</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3965329521649605</v>
+        <v>0.395589563866993</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4508475319927298</v>
+        <v>0.4512758687633994</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1137</v>
@@ -10023,19 +10023,19 @@
         <v>997294</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>954397</v>
+        <v>952303</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1041926</v>
+        <v>1048236</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4763294451246788</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4558411902281967</v>
+        <v>0.4548409721667008</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4976468362859343</v>
+        <v>0.5006607221662619</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>272662</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>243672</v>
+        <v>244418</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>303619</v>
+        <v>308090</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2605519907287689</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2328498159914569</v>
+        <v>0.2335622139214324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2901335116171531</v>
+        <v>0.2944062574131043</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>386</v>
@@ -10073,19 +10073,19 @@
         <v>272542</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>244824</v>
+        <v>246139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>297740</v>
+        <v>296851</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2602509388670883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2337829201174237</v>
+        <v>0.2350394355296243</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2843126715036252</v>
+        <v>0.2834642493105524</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>650</v>
@@ -10094,19 +10094,19 @@
         <v>545204</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>505030</v>
+        <v>504431</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>585670</v>
+        <v>587678</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2604014110800009</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2412135823549613</v>
+        <v>0.2409271863327746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2797286279103166</v>
+        <v>0.2806877127378234</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>154400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130780</v>
+        <v>133274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177428</v>
+        <v>179015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.147542822912801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1249716243146778</v>
+        <v>0.1273543278926645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1695474613316854</v>
+        <v>0.1710637235794747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>348</v>
@@ -10144,19 +10144,19 @@
         <v>224485</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>199832</v>
+        <v>204925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246747</v>
+        <v>250030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2143618415589419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1908205659187048</v>
+        <v>0.1956837017455911</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2356198746767977</v>
+        <v>0.2387543999079002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -10165,19 +10165,19 @@
         <v>378886</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>347974</v>
+        <v>346854</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413196</v>
+        <v>414466</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.180964255029486</v>
+        <v>0.1809642550294861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1662001048492501</v>
+        <v>0.1656650101714862</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1973513764043983</v>
+        <v>0.1979582100432281</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>47072</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36086</v>
+        <v>35881</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62905</v>
+        <v>62769</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04498091620630255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03448302785328699</v>
+        <v>0.0342871422186704</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06011120764780365</v>
+        <v>0.05998127774909048</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -10215,19 +10215,19 @@
         <v>58209</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47591</v>
+        <v>46691</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72171</v>
+        <v>70131</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05558377652885396</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04544450464184539</v>
+        <v>0.04458567630840387</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06891661286647971</v>
+        <v>0.06696797618513547</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>145</v>
@@ -10236,19 +10236,19 @@
         <v>105280</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>89239</v>
+        <v>89379</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127208</v>
+        <v>125232</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05028423827976001</v>
+        <v>0.05028423827976002</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04262262073165949</v>
+        <v>0.04268946519195551</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06075717126803815</v>
+        <v>0.05981368201134474</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>8479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4208</v>
+        <v>4553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16444</v>
+        <v>16708</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008102432233410976</v>
+        <v>0.008102432233410978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004021512687740714</v>
+        <v>0.004351032162063497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01571405255098482</v>
+        <v>0.01596609788832938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -10286,19 +10286,19 @@
         <v>33398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24833</v>
+        <v>24941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45203</v>
+        <v>46379</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03189156337779211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02371278360933379</v>
+        <v>0.02381595377510577</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04316463364409516</v>
+        <v>0.04428750887194936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -10307,19 +10307,19 @@
         <v>41877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31358</v>
+        <v>32015</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56826</v>
+        <v>56179</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02000124259857592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01497719510548258</v>
+        <v>0.01529112781127298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02714125589700411</v>
+        <v>0.02683218271483551</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>10080</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4996</v>
+        <v>5023</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18125</v>
+        <v>18123</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009632452297985731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004773837945573892</v>
+        <v>0.00480022516620938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01732021230447309</v>
+        <v>0.01731798866657051</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -10357,19 +10357,19 @@
         <v>15085</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9491</v>
+        <v>9170</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23741</v>
+        <v>24495</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01440466042737723</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009062638139207449</v>
+        <v>0.008756660342384873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02267005605218877</v>
+        <v>0.02339054363535559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -10378,19 +10378,19 @@
         <v>25165</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16869</v>
+        <v>16411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35454</v>
+        <v>37383</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01201940788749829</v>
+        <v>0.0120194078874983</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008057157857579305</v>
+        <v>0.007838086988232252</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01693371792577837</v>
+        <v>0.01785485241191141</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>505293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>471902</v>
+        <v>468400</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>540056</v>
+        <v>537053</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5185543397503851</v>
+        <v>0.518554339750385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4842870154680052</v>
+        <v>0.4806934394235881</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5542297730844598</v>
+        <v>0.5511481848011663</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>542</v>
@@ -10503,19 +10503,19 @@
         <v>401217</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>374648</v>
+        <v>373984</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>426138</v>
+        <v>429217</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.441783566799521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4125281568400215</v>
+        <v>0.4117972586383645</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4692242635603364</v>
+        <v>0.4726142042533353</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1009</v>
@@ -10524,19 +10524,19 @@
         <v>906510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>858556</v>
+        <v>863097</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>949337</v>
+        <v>951801</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4815197462747743</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4560475523234828</v>
+        <v>0.458459429564386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5042684662219385</v>
+        <v>0.5055776201747236</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>209224</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181435</v>
+        <v>181553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>237739</v>
+        <v>238659</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2147154187557074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1861973047596474</v>
+        <v>0.1863177154622877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2439783100055856</v>
+        <v>0.244922252150988</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>286</v>
@@ -10574,19 +10574,19 @@
         <v>189519</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>168387</v>
+        <v>167036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>210152</v>
+        <v>210769</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2086808694642432</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1854124358230608</v>
+        <v>0.1839243294770125</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2314005341898244</v>
+        <v>0.2320789672840744</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>480</v>
@@ -10595,19 +10595,19 @@
         <v>398743</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>359044</v>
+        <v>363684</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>437031</v>
+        <v>433540</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2118043228890427</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1907170411056389</v>
+        <v>0.1931817386193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2321421630561929</v>
+        <v>0.2302874264883016</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>161033</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>139107</v>
+        <v>139723</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>183482</v>
+        <v>184215</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.165259690647874</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1427574860696781</v>
+        <v>0.1433903175640255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1882971291597202</v>
+        <v>0.1890501632535375</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>332</v>
@@ -10645,19 +10645,19 @@
         <v>207016</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>186153</v>
+        <v>185300</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>229493</v>
+        <v>227885</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2279472837232116</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2049750571089139</v>
+        <v>0.2040354109976177</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.25269648171797</v>
+        <v>0.2509257972311602</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>523</v>
@@ -10666,19 +10666,19 @@
         <v>368050</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>335545</v>
+        <v>337290</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>402077</v>
+        <v>397527</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1955004897993369</v>
+        <v>0.195500489799337</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1782346651591159</v>
+        <v>0.179161697826352</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2135752932418988</v>
+        <v>0.2111583910973281</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>39109</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28138</v>
+        <v>27947</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54475</v>
+        <v>54806</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04013538321545649</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02887653791319348</v>
+        <v>0.02868073743089853</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05590436060150863</v>
+        <v>0.0562440995652002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -10716,19 +10716,19 @@
         <v>48733</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38076</v>
+        <v>38359</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61766</v>
+        <v>62455</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05366055398743075</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04192548015309722</v>
+        <v>0.04223723148977276</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0680105216926204</v>
+        <v>0.0687700493585235</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -10737,19 +10737,19 @@
         <v>87842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>72508</v>
+        <v>71052</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>106401</v>
+        <v>108727</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04665999123977419</v>
+        <v>0.04665999123977418</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03851503023454142</v>
+        <v>0.03774128421561177</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05651827024358267</v>
+        <v>0.05775377902135134</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>41932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28378</v>
+        <v>29512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59143</v>
+        <v>59960</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04303235497171046</v>
+        <v>0.04303235497171045</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02912237149972806</v>
+        <v>0.03028690916080328</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06069494494104393</v>
+        <v>0.06153390904969089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>54</v>
@@ -10787,19 +10787,19 @@
         <v>38979</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28352</v>
+        <v>29007</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51875</v>
+        <v>51755</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04292010732474594</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03121867093093036</v>
+        <v>0.03193987321629374</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05711958394344982</v>
+        <v>0.05698738511651706</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>90</v>
@@ -10808,19 +10808,19 @@
         <v>80911</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64698</v>
+        <v>63866</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>101486</v>
+        <v>102359</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04297820616202496</v>
+        <v>0.04297820616202497</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03436628418385651</v>
+        <v>0.03392432669992519</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05390754450034419</v>
+        <v>0.05437118340374174</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>17835</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11032</v>
+        <v>10964</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27284</v>
+        <v>27464</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0183028126588665</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01132178778216517</v>
+        <v>0.01125221351885762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02800030062142509</v>
+        <v>0.02818465258551317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>33</v>
@@ -10858,19 +10858,19 @@
         <v>22711</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16283</v>
+        <v>15890</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32765</v>
+        <v>30976</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02500761870084758</v>
+        <v>0.02500761870084759</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01792967276933785</v>
+        <v>0.01749633135252836</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03607812429316473</v>
+        <v>0.03410779147339735</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -10879,19 +10879,19 @@
         <v>40546</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30098</v>
+        <v>30275</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53123</v>
+        <v>53572</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02153724363504692</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01598760133064802</v>
+        <v>0.01608170169231278</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02821778013640029</v>
+        <v>0.02845630940243801</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>1590639</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1526588</v>
+        <v>1526226</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1657889</v>
+        <v>1655421</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4574152453323457</v>
+        <v>0.4574152453323456</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.438996339245476</v>
+        <v>0.4388922844273765</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4767541253853004</v>
+        <v>0.4760444127912716</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1834</v>
@@ -11004,19 +11004,19 @@
         <v>1362015</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1309239</v>
+        <v>1310700</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1412067</v>
+        <v>1413314</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3688105841651881</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3545195988922857</v>
+        <v>0.3549152666917179</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3823637116626387</v>
+        <v>0.3827013661086596</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3262</v>
@@ -11025,19 +11025,19 @@
         <v>2952654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2868363</v>
+        <v>2865704</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3049828</v>
+        <v>3039159</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4117811863414768</v>
+        <v>0.4117811863414769</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.400025822193116</v>
+        <v>0.3996549174556103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4253331664056529</v>
+        <v>0.4238451913503685</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>884702</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>825940</v>
+        <v>829192</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>944254</v>
+        <v>946069</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2544109863568799</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2375131677294783</v>
+        <v>0.2384482255805077</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2715363548648564</v>
+        <v>0.2720581421827489</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1326</v>
@@ -11075,19 +11075,19 @@
         <v>931724</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>882567</v>
+        <v>887368</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>974743</v>
+        <v>982201</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2522951102688902</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2389842161687036</v>
+        <v>0.2402841002588615</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2639438804026632</v>
+        <v>0.2659633676611813</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2145</v>
@@ -11096,19 +11096,19 @@
         <v>1816426</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1747075</v>
+        <v>1737824</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1891631</v>
+        <v>1891120</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.2533212466869259</v>
+        <v>0.2533212466869258</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2436494015901035</v>
+        <v>0.2423592525946397</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2638094257487864</v>
+        <v>0.2637381805445664</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>633490</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>590332</v>
+        <v>591879</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>685196</v>
+        <v>682716</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1821706503905737</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1697599759782551</v>
+        <v>0.1702048916184587</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1970397652213455</v>
+        <v>0.1963264983986654</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1323</v>
@@ -11146,19 +11146,19 @@
         <v>855066</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>813109</v>
+        <v>810112</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>899557</v>
+        <v>897968</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.231537339392216</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2201761840902553</v>
+        <v>0.2193646771873461</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2435846661207944</v>
+        <v>0.243154460618073</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2022</v>
@@ -11167,19 +11167,19 @@
         <v>1488556</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1431039</v>
+        <v>1430141</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1551526</v>
+        <v>1560373</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2075959764220653</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1995746529148684</v>
+        <v>0.1994494200505653</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2163779118958442</v>
+        <v>0.2176117376048427</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>195452</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>171696</v>
+        <v>169535</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>224662</v>
+        <v>224161</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05620558703524497</v>
+        <v>0.05620558703524496</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04937405637865794</v>
+        <v>0.04875266118121686</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06460548518879157</v>
+        <v>0.06446122375199061</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>439</v>
@@ -11217,19 +11217,19 @@
         <v>290433</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>261784</v>
+        <v>259870</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>318796</v>
+        <v>316192</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07864435992364666</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07088658142115009</v>
+        <v>0.07036836899709403</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08632465417071308</v>
+        <v>0.08561951815409417</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>657</v>
@@ -11238,19 +11238,19 @@
         <v>485885</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>446129</v>
+        <v>448721</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>528351</v>
+        <v>526152</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06776222832458133</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0622177205229402</v>
+        <v>0.06257923256224771</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07368458439186976</v>
+        <v>0.073377916430638</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>108935</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>88574</v>
+        <v>87087</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>133578</v>
+        <v>133170</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03132621036430543</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02547094793114593</v>
+        <v>0.02504320620482496</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03841263579463067</v>
+        <v>0.03829541112713796</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>261</v>
@@ -11288,19 +11288,19 @@
         <v>172830</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>152055</v>
+        <v>151342</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>195345</v>
+        <v>193917</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04679934536343783</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04117382255167527</v>
+        <v>0.0409807117107321</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05289621904555394</v>
+        <v>0.0525093827782572</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>369</v>
@@ -11309,19 +11309,19 @@
         <v>281765</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>254160</v>
+        <v>251936</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>317932</v>
+        <v>319449</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03929533914402036</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0354455637758932</v>
+        <v>0.03513537958659229</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04433924961379543</v>
+        <v>0.04455078334323613</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>64233</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>48386</v>
+        <v>49782</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>81285</v>
+        <v>80235</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01847132052065026</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01391426232269151</v>
+        <v>0.01431557175821886</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02337494381335841</v>
+        <v>0.02307303082647519</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>117</v>
@@ -11359,19 +11359,19 @@
         <v>80926</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>67184</v>
+        <v>65382</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>97216</v>
+        <v>96407</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02191326088662104</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01819217628884061</v>
+        <v>0.01770433711380906</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02632436795060257</v>
+        <v>0.02610530406298254</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>183</v>
@@ -11380,19 +11380,19 @@
         <v>145159</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>124363</v>
+        <v>122440</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>167439</v>
+        <v>167451</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02024402308093028</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01734389890933092</v>
+        <v>0.01707558629209311</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02335120278466882</v>
+        <v>0.02335298643042814</v>
       </c>
     </row>
     <row r="38">
